--- a/script/download.xlsx
+++ b/script/download.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7DD3C5-44FB-4F68-9DEB-234402A6581A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C2B59C-89B0-43C4-B4B3-DE096BF2E4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
   <sheets>
     <sheet name="small_FileSize" sheetId="1" r:id="rId1"/>
     <sheet name="large_file" sheetId="2" r:id="rId2"/>
+    <sheet name="small_t0" sheetId="3" r:id="rId3"/>
+    <sheet name="large_t0" sheetId="4" r:id="rId4"/>
+    <sheet name="small_t1" sheetId="5" r:id="rId5"/>
+    <sheet name="large_t1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="1">
   <si>
     <t>./fileDownloading</t>
   </si>
@@ -382,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA0C037-F824-42FA-A534-AB643C0C0EDE}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L20" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E21DB57-8453-4EF9-B230-B888DAF15CB3}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L74" sqref="A1:L74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5429,4 +5433,3411 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED42AF60-AB6E-40CA-87F9-E205799F0A91}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="A1:L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>270</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>150</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>270</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>270</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>270</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>270</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>270</v>
+      </c>
+      <c r="D6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <v>210</v>
+      </c>
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>270</v>
+      </c>
+      <c r="D8">
+        <v>240</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>270</v>
+      </c>
+      <c r="D9">
+        <v>270</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>270</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>270</v>
+      </c>
+      <c r="D11">
+        <v>330</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>270</v>
+      </c>
+      <c r="D12">
+        <v>360</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>270</v>
+      </c>
+      <c r="D13">
+        <v>380</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>270</v>
+      </c>
+      <c r="D14">
+        <v>410</v>
+      </c>
+      <c r="E14">
+        <v>150</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>270</v>
+      </c>
+      <c r="D15">
+        <v>440</v>
+      </c>
+      <c r="E15">
+        <v>150</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>270</v>
+      </c>
+      <c r="D16">
+        <v>470</v>
+      </c>
+      <c r="E16">
+        <v>150</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>270</v>
+      </c>
+      <c r="D17">
+        <v>500</v>
+      </c>
+      <c r="E17">
+        <v>150</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA79DD7-1FC0-47AD-B345-FBD0BA386764}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>2400</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>150</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>2400</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>2400</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>2400</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>2400</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>2400</v>
+      </c>
+      <c r="D6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>2400</v>
+      </c>
+      <c r="D7">
+        <v>210</v>
+      </c>
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>2400</v>
+      </c>
+      <c r="D8">
+        <v>240</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>2400</v>
+      </c>
+      <c r="D9">
+        <v>270</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>2400</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>2400</v>
+      </c>
+      <c r="D11">
+        <v>330</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>2400</v>
+      </c>
+      <c r="D12">
+        <v>360</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>2400</v>
+      </c>
+      <c r="D13">
+        <v>380</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>2400</v>
+      </c>
+      <c r="D14">
+        <v>410</v>
+      </c>
+      <c r="E14">
+        <v>150</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>2400</v>
+      </c>
+      <c r="D15">
+        <v>440</v>
+      </c>
+      <c r="E15">
+        <v>150</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>2400</v>
+      </c>
+      <c r="D16">
+        <v>470</v>
+      </c>
+      <c r="E16">
+        <v>150</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>2400</v>
+      </c>
+      <c r="D17">
+        <v>500</v>
+      </c>
+      <c r="E17">
+        <v>150</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88327DE3-DC4E-4B68-B0B1-C0558AADF009}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>270</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>270</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>270</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>270</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>270</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>270</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>210</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>270</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>270</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>270</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>270</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>270</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>330</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>270</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>360</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>270</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>380</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>270</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>410</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>270</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>440</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>270</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>470</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>270</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>270</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>530</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>270</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>560</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <v>270</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>590</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>270</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>620</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>270</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>650</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10000</v>
+      </c>
+      <c r="C23">
+        <v>270</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>680</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="C24">
+        <v>270</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>710</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10000</v>
+      </c>
+      <c r="C25">
+        <v>270</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>740</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="C26">
+        <v>270</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>770</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10000</v>
+      </c>
+      <c r="C27">
+        <v>270</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>800</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5A530-8965-4184-9593-6E57FE164E34}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>2400</v>
+      </c>
+      <c r="D1">
+        <v>180</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>2400</v>
+      </c>
+      <c r="D2">
+        <v>180</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>2400</v>
+      </c>
+      <c r="D3">
+        <v>180</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>2400</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>2400</v>
+      </c>
+      <c r="D5">
+        <v>180</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>2400</v>
+      </c>
+      <c r="D6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>2400</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <v>210</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>2400</v>
+      </c>
+      <c r="D8">
+        <v>180</v>
+      </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>2400</v>
+      </c>
+      <c r="D9">
+        <v>180</v>
+      </c>
+      <c r="E9">
+        <v>270</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>2400</v>
+      </c>
+      <c r="D10">
+        <v>180</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>2400</v>
+      </c>
+      <c r="D11">
+        <v>180</v>
+      </c>
+      <c r="E11">
+        <v>330</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>2400</v>
+      </c>
+      <c r="D12">
+        <v>180</v>
+      </c>
+      <c r="E12">
+        <v>360</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>2400</v>
+      </c>
+      <c r="D13">
+        <v>180</v>
+      </c>
+      <c r="E13">
+        <v>380</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>2400</v>
+      </c>
+      <c r="D14">
+        <v>180</v>
+      </c>
+      <c r="E14">
+        <v>410</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>2400</v>
+      </c>
+      <c r="D15">
+        <v>180</v>
+      </c>
+      <c r="E15">
+        <v>440</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>2400</v>
+      </c>
+      <c r="D16">
+        <v>180</v>
+      </c>
+      <c r="E16">
+        <v>470</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>2400</v>
+      </c>
+      <c r="D17">
+        <v>180</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>2400</v>
+      </c>
+      <c r="D18">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <v>530</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>2400</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+      <c r="E19">
+        <v>560</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <v>2400</v>
+      </c>
+      <c r="D20">
+        <v>180</v>
+      </c>
+      <c r="E20">
+        <v>590</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>2400</v>
+      </c>
+      <c r="D21">
+        <v>180</v>
+      </c>
+      <c r="E21">
+        <v>620</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>2400</v>
+      </c>
+      <c r="D22">
+        <v>180</v>
+      </c>
+      <c r="E22">
+        <v>650</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10000</v>
+      </c>
+      <c r="C23">
+        <v>2400</v>
+      </c>
+      <c r="D23">
+        <v>180</v>
+      </c>
+      <c r="E23">
+        <v>680</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="C24">
+        <v>2400</v>
+      </c>
+      <c r="D24">
+        <v>180</v>
+      </c>
+      <c r="E24">
+        <v>710</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10000</v>
+      </c>
+      <c r="C25">
+        <v>2400</v>
+      </c>
+      <c r="D25">
+        <v>180</v>
+      </c>
+      <c r="E25">
+        <v>740</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="C26">
+        <v>2400</v>
+      </c>
+      <c r="D26">
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <v>770</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10000</v>
+      </c>
+      <c r="C27">
+        <v>2400</v>
+      </c>
+      <c r="D27">
+        <v>180</v>
+      </c>
+      <c r="E27">
+        <v>800</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/script/download.xlsx
+++ b/script/download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C2B59C-89B0-43C4-B4B3-DE096BF2E4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC796E6-DAD4-4707-9A82-6E13F9DCA6B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="1">
   <si>
     <t>./fileDownloading</t>
   </si>
@@ -386,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA0C037-F824-42FA-A534-AB643C0C0EDE}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L20" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
@@ -5437,10 +5437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED42AF60-AB6E-40CA-87F9-E205799F0A91}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="A1:L17"/>
+      <selection activeCell="D1" sqref="D1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5456,10 +5456,10 @@
         <v>10000</v>
       </c>
       <c r="C1">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <v>150</v>
@@ -5483,7 +5483,7 @@
         <v>5</v>
       </c>
       <c r="L1">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5494,10 +5494,10 @@
         <v>10000</v>
       </c>
       <c r="C2">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -5521,7 +5521,7 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5532,10 +5532,10 @@
         <v>10000</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -5559,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5570,10 +5570,10 @@
         <v>10000</v>
       </c>
       <c r="C4">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -5597,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5608,10 +5608,10 @@
         <v>10000</v>
       </c>
       <c r="C5">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -5635,7 +5635,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -5646,10 +5646,10 @@
         <v>10000</v>
       </c>
       <c r="C6">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D6">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -5673,7 +5673,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5684,10 +5684,10 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D7">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -5711,7 +5711,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5722,10 +5722,10 @@
         <v>10000</v>
       </c>
       <c r="C8">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D8">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -5749,7 +5749,7 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5760,10 +5760,10 @@
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D9">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -5787,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5798,7 +5798,7 @@
         <v>10000</v>
       </c>
       <c r="C10">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D10">
         <v>300</v>
@@ -5825,7 +5825,7 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5836,10 +5836,10 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D11">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="E11">
         <v>150</v>
@@ -5863,7 +5863,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5874,10 +5874,10 @@
         <v>10000</v>
       </c>
       <c r="C12">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D12">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="E12">
         <v>150</v>
@@ -5901,7 +5901,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5912,10 +5912,10 @@
         <v>10000</v>
       </c>
       <c r="C13">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D13">
-        <v>380</v>
+        <v>2400</v>
       </c>
       <c r="E13">
         <v>150</v>
@@ -5939,159 +5939,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>10000</v>
-      </c>
-      <c r="C14">
-        <v>270</v>
-      </c>
-      <c r="D14">
-        <v>410</v>
-      </c>
-      <c r="E14">
-        <v>150</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>10000</v>
-      </c>
-      <c r="C15">
-        <v>270</v>
-      </c>
-      <c r="D15">
-        <v>440</v>
-      </c>
-      <c r="E15">
-        <v>150</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>10000</v>
-      </c>
-      <c r="C16">
-        <v>270</v>
-      </c>
-      <c r="D16">
-        <v>470</v>
-      </c>
-      <c r="E16">
-        <v>150</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>10000</v>
-      </c>
-      <c r="C17">
-        <v>270</v>
-      </c>
-      <c r="D17">
-        <v>500</v>
-      </c>
-      <c r="E17">
-        <v>150</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6101,10 +5949,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA79DD7-1FC0-47AD-B345-FBD0BA386764}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C17"/>
+      <selection activeCell="E1" sqref="E1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6117,10 +5965,10 @@
         <v>10000</v>
       </c>
       <c r="C1">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <v>150</v>
@@ -6144,7 +5992,7 @@
         <v>5</v>
       </c>
       <c r="L1">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6155,10 +6003,10 @@
         <v>10000</v>
       </c>
       <c r="C2">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -6182,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6193,10 +6041,10 @@
         <v>10000</v>
       </c>
       <c r="C3">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -6220,7 +6068,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6231,10 +6079,10 @@
         <v>10000</v>
       </c>
       <c r="C4">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -6258,7 +6106,7 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6269,10 +6117,10 @@
         <v>10000</v>
       </c>
       <c r="C5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -6296,7 +6144,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6307,10 +6155,10 @@
         <v>10000</v>
       </c>
       <c r="C6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D6">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -6334,7 +6182,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6345,10 +6193,10 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D7">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -6372,7 +6220,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6383,10 +6231,10 @@
         <v>10000</v>
       </c>
       <c r="C8">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D8">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -6410,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6421,10 +6269,10 @@
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D9">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -6448,7 +6296,7 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6459,7 +6307,7 @@
         <v>10000</v>
       </c>
       <c r="C10">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D10">
         <v>300</v>
@@ -6486,7 +6334,7 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6497,10 +6345,10 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D11">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="E11">
         <v>150</v>
@@ -6524,7 +6372,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6535,10 +6383,10 @@
         <v>10000</v>
       </c>
       <c r="C12">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D12">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="E12">
         <v>150</v>
@@ -6562,7 +6410,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6573,11 +6421,11 @@
         <v>10000</v>
       </c>
       <c r="C13">
+        <v>1800</v>
+      </c>
+      <c r="D13">
         <v>2400</v>
       </c>
-      <c r="D13">
-        <v>380</v>
-      </c>
       <c r="E13">
         <v>150</v>
       </c>
@@ -6600,159 +6448,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>10000</v>
-      </c>
-      <c r="C14">
-        <v>2400</v>
-      </c>
-      <c r="D14">
-        <v>410</v>
-      </c>
-      <c r="E14">
-        <v>150</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>10000</v>
-      </c>
-      <c r="C15">
-        <v>2400</v>
-      </c>
-      <c r="D15">
-        <v>440</v>
-      </c>
-      <c r="E15">
-        <v>150</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>10000</v>
-      </c>
-      <c r="C16">
-        <v>2400</v>
-      </c>
-      <c r="D16">
-        <v>470</v>
-      </c>
-      <c r="E16">
-        <v>150</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>10000</v>
-      </c>
-      <c r="C17">
-        <v>2400</v>
-      </c>
-      <c r="D17">
-        <v>500</v>
-      </c>
-      <c r="E17">
-        <v>150</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -6762,10 +6458,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88327DE3-DC4E-4B68-B0B1-C0558AADF009}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="E13" sqref="E1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6778,13 +6474,13 @@
         <v>10000</v>
       </c>
       <c r="C1">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E1">
-        <v>30</v>
+        <v>2400</v>
       </c>
       <c r="F1">
         <v>50</v>
@@ -6805,7 +6501,7 @@
         <v>5</v>
       </c>
       <c r="L1">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6816,13 +6512,13 @@
         <v>10000</v>
       </c>
       <c r="C2">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>1200</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -6843,7 +6539,7 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6854,13 +6550,13 @@
         <v>10000</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -6881,7 +6577,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6892,13 +6588,13 @@
         <v>10000</v>
       </c>
       <c r="C4">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -6919,7 +6615,7 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6930,10 +6626,10 @@
         <v>10000</v>
       </c>
       <c r="C5">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -6957,7 +6653,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6968,13 +6664,13 @@
         <v>10000</v>
       </c>
       <c r="C6">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -6995,7 +6691,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7006,13 +6702,13 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -7033,7 +6729,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7044,13 +6740,13 @@
         <v>10000</v>
       </c>
       <c r="C8">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -7071,7 +6767,7 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7082,13 +6778,13 @@
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -7109,7 +6805,7 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7120,13 +6816,13 @@
         <v>10000</v>
       </c>
       <c r="C10">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -7147,7 +6843,7 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7158,13 +6854,13 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>330</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -7185,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7196,13 +6892,13 @@
         <v>10000</v>
       </c>
       <c r="C12">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -7223,7 +6919,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -7234,13 +6930,13 @@
         <v>10000</v>
       </c>
       <c r="C13">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -7261,539 +6957,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>10000</v>
-      </c>
-      <c r="C14">
-        <v>270</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>410</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>10000</v>
-      </c>
-      <c r="C15">
-        <v>270</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>440</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>10000</v>
-      </c>
-      <c r="C16">
-        <v>270</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>470</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>10000</v>
-      </c>
-      <c r="C17">
-        <v>270</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
-        <v>500</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>10000</v>
-      </c>
-      <c r="C18">
-        <v>270</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>530</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>10000</v>
-      </c>
-      <c r="C19">
-        <v>270</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>560</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>10000</v>
-      </c>
-      <c r="C20">
-        <v>270</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>590</v>
-      </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>10000</v>
-      </c>
-      <c r="C21">
-        <v>270</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
-      <c r="E21">
-        <v>620</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>5</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>10000</v>
-      </c>
-      <c r="C22">
-        <v>270</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>650</v>
-      </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>10000</v>
-      </c>
-      <c r="C23">
-        <v>270</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23">
-        <v>680</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>10000</v>
-      </c>
-      <c r="C24">
-        <v>270</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24">
-        <v>710</v>
-      </c>
-      <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>10000</v>
-      </c>
-      <c r="C25">
-        <v>270</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25">
-        <v>740</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>10000</v>
-      </c>
-      <c r="C26">
-        <v>270</v>
-      </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="E26">
-        <v>770</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>10000</v>
-      </c>
-      <c r="C27">
-        <v>270</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="E27">
-        <v>800</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7803,10 +6967,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5A530-8965-4184-9593-6E57FE164E34}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E27"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7822,10 +6986,10 @@
         <v>2400</v>
       </c>
       <c r="D1">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E1">
-        <v>30</v>
+        <v>2400</v>
       </c>
       <c r="F1">
         <v>50</v>
@@ -7846,7 +7010,7 @@
         <v>5</v>
       </c>
       <c r="L1">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7860,10 +7024,10 @@
         <v>2400</v>
       </c>
       <c r="D2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>1200</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -7884,7 +7048,7 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7898,10 +7062,10 @@
         <v>2400</v>
       </c>
       <c r="D3">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -7922,7 +7086,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7936,10 +7100,10 @@
         <v>2400</v>
       </c>
       <c r="D4">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -7960,7 +7124,7 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7974,7 +7138,7 @@
         <v>2400</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -7998,7 +7162,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -8012,10 +7176,10 @@
         <v>2400</v>
       </c>
       <c r="D6">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -8036,7 +7200,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8050,10 +7214,10 @@
         <v>2400</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -8074,7 +7238,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -8088,10 +7252,10 @@
         <v>2400</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -8112,7 +7276,7 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8126,10 +7290,10 @@
         <v>2400</v>
       </c>
       <c r="D9">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -8150,7 +7314,7 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -8164,10 +7328,10 @@
         <v>2400</v>
       </c>
       <c r="D10">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -8188,7 +7352,7 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8202,10 +7366,10 @@
         <v>2400</v>
       </c>
       <c r="D11">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>330</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -8226,7 +7390,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8240,10 +7404,10 @@
         <v>2400</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -8264,7 +7428,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8278,10 +7442,10 @@
         <v>2400</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -8302,539 +7466,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>10000</v>
-      </c>
-      <c r="C14">
-        <v>2400</v>
-      </c>
-      <c r="D14">
-        <v>180</v>
-      </c>
-      <c r="E14">
-        <v>410</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>10000</v>
-      </c>
-      <c r="C15">
-        <v>2400</v>
-      </c>
-      <c r="D15">
-        <v>180</v>
-      </c>
-      <c r="E15">
-        <v>440</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>10000</v>
-      </c>
-      <c r="C16">
-        <v>2400</v>
-      </c>
-      <c r="D16">
-        <v>180</v>
-      </c>
-      <c r="E16">
-        <v>470</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>10000</v>
-      </c>
-      <c r="C17">
-        <v>2400</v>
-      </c>
-      <c r="D17">
-        <v>180</v>
-      </c>
-      <c r="E17">
-        <v>500</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>10000</v>
-      </c>
-      <c r="C18">
-        <v>2400</v>
-      </c>
-      <c r="D18">
-        <v>180</v>
-      </c>
-      <c r="E18">
-        <v>530</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>10000</v>
-      </c>
-      <c r="C19">
-        <v>2400</v>
-      </c>
-      <c r="D19">
-        <v>180</v>
-      </c>
-      <c r="E19">
-        <v>560</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>10000</v>
-      </c>
-      <c r="C20">
-        <v>2400</v>
-      </c>
-      <c r="D20">
-        <v>180</v>
-      </c>
-      <c r="E20">
-        <v>590</v>
-      </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>10000</v>
-      </c>
-      <c r="C21">
-        <v>2400</v>
-      </c>
-      <c r="D21">
-        <v>180</v>
-      </c>
-      <c r="E21">
-        <v>620</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>5</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>10000</v>
-      </c>
-      <c r="C22">
-        <v>2400</v>
-      </c>
-      <c r="D22">
-        <v>180</v>
-      </c>
-      <c r="E22">
-        <v>650</v>
-      </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>10000</v>
-      </c>
-      <c r="C23">
-        <v>2400</v>
-      </c>
-      <c r="D23">
-        <v>180</v>
-      </c>
-      <c r="E23">
-        <v>680</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>10000</v>
-      </c>
-      <c r="C24">
-        <v>2400</v>
-      </c>
-      <c r="D24">
-        <v>180</v>
-      </c>
-      <c r="E24">
-        <v>710</v>
-      </c>
-      <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>10000</v>
-      </c>
-      <c r="C25">
-        <v>2400</v>
-      </c>
-      <c r="D25">
-        <v>180</v>
-      </c>
-      <c r="E25">
-        <v>740</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>10000</v>
-      </c>
-      <c r="C26">
-        <v>2400</v>
-      </c>
-      <c r="D26">
-        <v>180</v>
-      </c>
-      <c r="E26">
-        <v>770</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>10000</v>
-      </c>
-      <c r="C27">
-        <v>2400</v>
-      </c>
-      <c r="D27">
-        <v>180</v>
-      </c>
-      <c r="E27">
-        <v>800</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/script/download.xlsx
+++ b/script/download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC796E6-DAD4-4707-9A82-6E13F9DCA6B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3E7B1-0FC9-49C4-A939-3DC199561E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="6" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
   <sheets>
     <sheet name="small_FileSize" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="large_t0" sheetId="4" r:id="rId4"/>
     <sheet name="small_t1" sheetId="5" r:id="rId5"/>
     <sheet name="large_t1" sheetId="6" r:id="rId6"/>
+    <sheet name="small_tau1" sheetId="7" r:id="rId7"/>
+    <sheet name="large_tau1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="1">
   <si>
     <t>./fileDownloading</t>
   </si>
@@ -5437,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED42AF60-AB6E-40CA-87F9-E205799F0A91}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D13"/>
+      <selection activeCell="L10" sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5459,7 +5461,7 @@
         <v>360</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="E1">
         <v>150</v>
@@ -5497,7 +5499,7 @@
         <v>360</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -5535,7 +5537,7 @@
         <v>360</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -5573,7 +5575,7 @@
         <v>360</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -5611,7 +5613,7 @@
         <v>360</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -5649,7 +5651,7 @@
         <v>360</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -5687,7 +5689,7 @@
         <v>360</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -5725,7 +5727,7 @@
         <v>360</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -5763,7 +5765,7 @@
         <v>360</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -5801,7 +5803,7 @@
         <v>360</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>150</v>
@@ -5828,121 +5830,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>10000</v>
-      </c>
-      <c r="C11">
-        <v>360</v>
-      </c>
-      <c r="D11">
-        <v>600</v>
-      </c>
-      <c r="E11">
-        <v>150</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>10000</v>
-      </c>
-      <c r="C12">
-        <v>360</v>
-      </c>
-      <c r="D12">
-        <v>1200</v>
-      </c>
-      <c r="E12">
-        <v>150</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>10000</v>
-      </c>
-      <c r="C13">
-        <v>360</v>
-      </c>
-      <c r="D13">
-        <v>2400</v>
-      </c>
-      <c r="E13">
-        <v>150</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:L10">
+    <sortCondition descending="1" ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5952,7 +5843,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E13"/>
+      <selection activeCell="D13" sqref="D1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,7 +5935,7 @@
         <v>1800</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -6082,7 +5973,7 @@
         <v>1800</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -6120,7 +6011,7 @@
         <v>1800</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -6158,7 +6049,7 @@
         <v>1800</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -6196,7 +6087,7 @@
         <v>1800</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -6234,7 +6125,7 @@
         <v>1800</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -6272,7 +6163,7 @@
         <v>1800</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -6310,7 +6201,7 @@
         <v>1800</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>512</v>
       </c>
       <c r="E10">
         <v>150</v>
@@ -6348,7 +6239,7 @@
         <v>1800</v>
       </c>
       <c r="D11">
-        <v>600</v>
+        <v>1024</v>
       </c>
       <c r="E11">
         <v>150</v>
@@ -6386,7 +6277,7 @@
         <v>1800</v>
       </c>
       <c r="D12">
-        <v>1200</v>
+        <v>2048</v>
       </c>
       <c r="E12">
         <v>150</v>
@@ -6424,7 +6315,7 @@
         <v>1800</v>
       </c>
       <c r="D13">
-        <v>2400</v>
+        <v>4096</v>
       </c>
       <c r="E13">
         <v>150</v>
@@ -6458,10 +6349,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88327DE3-DC4E-4B68-B0B1-C0558AADF009}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E1:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6477,10 +6368,10 @@
         <v>360</v>
       </c>
       <c r="D1">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1">
-        <v>2400</v>
+        <v>512</v>
       </c>
       <c r="F1">
         <v>50</v>
@@ -6515,10 +6406,10 @@
         <v>360</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>1200</v>
+        <v>256</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -6553,10 +6444,10 @@
         <v>360</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -6591,10 +6482,10 @@
         <v>360</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -6629,10 +6520,10 @@
         <v>360</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -6667,10 +6558,10 @@
         <v>360</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -6705,10 +6596,10 @@
         <v>360</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -6743,10 +6634,10 @@
         <v>360</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -6781,10 +6672,10 @@
         <v>360</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -6819,10 +6710,10 @@
         <v>360</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -6846,121 +6737,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>10000</v>
-      </c>
-      <c r="C11">
-        <v>360</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>10000</v>
-      </c>
-      <c r="C12">
-        <v>360</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>10000</v>
-      </c>
-      <c r="C13">
-        <v>360</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:L10">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6970,7 +6750,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L13" sqref="A1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6983,13 +6763,13 @@
         <v>10000</v>
       </c>
       <c r="C1">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D1">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E1">
-        <v>2400</v>
+        <v>4096</v>
       </c>
       <c r="F1">
         <v>50</v>
@@ -7021,13 +6801,13 @@
         <v>10000</v>
       </c>
       <c r="C2">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E2">
-        <v>1200</v>
+        <v>2048</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -7059,13 +6839,13 @@
         <v>10000</v>
       </c>
       <c r="C3">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E3">
-        <v>600</v>
+        <v>1024</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -7097,13 +6877,13 @@
         <v>10000</v>
       </c>
       <c r="C4">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>512</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -7135,13 +6915,13 @@
         <v>10000</v>
       </c>
       <c r="C5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -7173,13 +6953,13 @@
         <v>10000</v>
       </c>
       <c r="C6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -7211,13 +6991,13 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -7249,13 +7029,13 @@
         <v>10000</v>
       </c>
       <c r="C8">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -7287,13 +7067,13 @@
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -7325,13 +7105,13 @@
         <v>10000</v>
       </c>
       <c r="C10">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -7363,13 +7143,13 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -7401,10 +7181,10 @@
         <v>10000</v>
       </c>
       <c r="C12">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -7439,16 +7219,923 @@
         <v>10000</v>
       </c>
       <c r="C13">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
         <v>50</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:L13">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA304048-E44C-4087-AD8C-A7D1DA5AE5C0}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>360</v>
+      </c>
+      <c r="D1">
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <v>128</v>
+      </c>
+      <c r="F1">
+        <v>512</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>360</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>256</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>360</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>360</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>360</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>360</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>360</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>360</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>360</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>360</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CD64F8-2CD3-415E-B26E-1E57FC17E764}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>1800</v>
+      </c>
+      <c r="D1">
+        <v>256</v>
+      </c>
+      <c r="E1">
+        <v>1024</v>
+      </c>
+      <c r="F1">
+        <v>4096</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>1800</v>
+      </c>
+      <c r="D2">
+        <v>256</v>
+      </c>
+      <c r="E2">
+        <v>1024</v>
+      </c>
+      <c r="F2">
+        <v>2048</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>1800</v>
+      </c>
+      <c r="D3">
+        <v>256</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="F3">
+        <v>1024</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>1800</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>1024</v>
+      </c>
+      <c r="F4">
+        <v>512</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>1800</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>1024</v>
+      </c>
+      <c r="F5">
+        <v>256</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>1800</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="E6">
+        <v>1024</v>
+      </c>
+      <c r="F6">
+        <v>128</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>1800</v>
+      </c>
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="E7">
+        <v>1024</v>
+      </c>
+      <c r="F7">
+        <v>64</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>1800</v>
+      </c>
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="E8">
+        <v>1024</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>1800</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>1024</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>1800</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10">
+        <v>1024</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>1800</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11">
+        <v>1024</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>1800</v>
+      </c>
+      <c r="D12">
+        <v>256</v>
+      </c>
+      <c r="E12">
+        <v>1024</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>1800</v>
+      </c>
+      <c r="D13">
+        <v>256</v>
+      </c>
+      <c r="E13">
+        <v>1024</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13">
         <v>100</v>

--- a/script/download.xlsx
+++ b/script/download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3E7B1-0FC9-49C4-A939-3DC199561E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F4CBE-C7CF-4FA3-BA21-B0118DB5717B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="6" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="2" activeTab="11" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
   <sheets>
     <sheet name="small_FileSize" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <sheet name="large_t1" sheetId="6" r:id="rId6"/>
     <sheet name="small_tau1" sheetId="7" r:id="rId7"/>
     <sheet name="large_tau1" sheetId="8" r:id="rId8"/>
+    <sheet name="small_tau2" sheetId="9" r:id="rId9"/>
+    <sheet name="large_tau2" sheetId="10" r:id="rId10"/>
+    <sheet name="ts" sheetId="11" r:id="rId11"/>
+    <sheet name="large_ts" sheetId="12" r:id="rId12"/>
+    <sheet name="small_small" sheetId="13" r:id="rId13"/>
+    <sheet name="large_large" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="1">
   <si>
     <t>./fileDownloading</t>
   </si>
@@ -2683,6 +2689,2096 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9706B5D-8082-4963-BE54-F0B33253617A}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>1800</v>
+      </c>
+      <c r="D1">
+        <v>256</v>
+      </c>
+      <c r="E1">
+        <v>1024</v>
+      </c>
+      <c r="F1">
+        <v>64</v>
+      </c>
+      <c r="G1">
+        <v>4096</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>1800</v>
+      </c>
+      <c r="D2">
+        <v>256</v>
+      </c>
+      <c r="E2">
+        <v>1024</v>
+      </c>
+      <c r="F2">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <v>2048</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>1800</v>
+      </c>
+      <c r="D3">
+        <v>256</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>1024</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>1800</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>1024</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>512</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>1800</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>1024</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>256</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>1800</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="E6">
+        <v>1024</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>1800</v>
+      </c>
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="E7">
+        <v>1024</v>
+      </c>
+      <c r="F7">
+        <v>64</v>
+      </c>
+      <c r="G7">
+        <v>64</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>1800</v>
+      </c>
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="E8">
+        <v>1024</v>
+      </c>
+      <c r="F8">
+        <v>64</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>1800</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>1024</v>
+      </c>
+      <c r="F9">
+        <v>64</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>1800</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10">
+        <v>1024</v>
+      </c>
+      <c r="F10">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>1800</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11">
+        <v>1024</v>
+      </c>
+      <c r="F11">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>1800</v>
+      </c>
+      <c r="D12">
+        <v>256</v>
+      </c>
+      <c r="E12">
+        <v>1024</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>1800</v>
+      </c>
+      <c r="D13">
+        <v>256</v>
+      </c>
+      <c r="E13">
+        <v>1024</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C5A1B8-639F-4275-B54B-6B0D6E6B9A45}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="A1:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>60</v>
+      </c>
+      <c r="D1">
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <v>128</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>32</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>360</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>540</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>720</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>900</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>1080</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>1260</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>1440</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>1620</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10001</v>
+      </c>
+      <c r="C11">
+        <v>1800</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE01BB5-0CF7-439A-B7B8-719334F662BE}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>600</v>
+      </c>
+      <c r="D1">
+        <v>256</v>
+      </c>
+      <c r="E1">
+        <v>1024</v>
+      </c>
+      <c r="F1">
+        <v>64</v>
+      </c>
+      <c r="G1">
+        <v>128</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>256</v>
+      </c>
+      <c r="E2">
+        <v>1024</v>
+      </c>
+      <c r="F2">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <v>128</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>256</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>128</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>1024</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>128</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>1800</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>1024</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>128</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>2100</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="E6">
+        <v>1024</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>2400</v>
+      </c>
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="E7">
+        <v>1024</v>
+      </c>
+      <c r="F7">
+        <v>64</v>
+      </c>
+      <c r="G7">
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>2700</v>
+      </c>
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="E8">
+        <v>1024</v>
+      </c>
+      <c r="F8">
+        <v>64</v>
+      </c>
+      <c r="G8">
+        <v>128</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>1024</v>
+      </c>
+      <c r="F9">
+        <v>64</v>
+      </c>
+      <c r="G9">
+        <v>128</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>3300</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10">
+        <v>1024</v>
+      </c>
+      <c r="F10">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>128</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>3600</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11">
+        <v>1024</v>
+      </c>
+      <c r="F11">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>128</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82899337-BD47-4705-96E6-4B33FCF9351C}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="A1:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>400</v>
+      </c>
+      <c r="D1">
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <v>128</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>32</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA53F4-A2F9-445C-AFA1-869028F29C55}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>2700</v>
+      </c>
+      <c r="D1">
+        <v>256</v>
+      </c>
+      <c r="E1">
+        <v>1024</v>
+      </c>
+      <c r="F1">
+        <v>64</v>
+      </c>
+      <c r="G1">
+        <v>128</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>2700</v>
+      </c>
+      <c r="D2">
+        <v>256</v>
+      </c>
+      <c r="E2">
+        <v>1024</v>
+      </c>
+      <c r="F2">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <v>128</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>2700</v>
+      </c>
+      <c r="D3">
+        <v>256</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>128</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>2700</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>1024</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>128</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>2700</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>1024</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>128</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>2700</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="E6">
+        <v>1024</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>2700</v>
+      </c>
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="E7">
+        <v>1024</v>
+      </c>
+      <c r="F7">
+        <v>64</v>
+      </c>
+      <c r="G7">
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>2700</v>
+      </c>
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="E8">
+        <v>1024</v>
+      </c>
+      <c r="F8">
+        <v>64</v>
+      </c>
+      <c r="G8">
+        <v>128</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E21DB57-8453-4EF9-B230-B888DAF15CB3}">
   <dimension ref="A1:L74"/>
@@ -7261,8 +9357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA304048-E44C-4087-AD8C-A7D1DA5AE5C0}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7657,7 +9753,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8159,4 +10255,399 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92378D10-4BC9-4E10-9208-8239E1950FFF}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="A5:L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>360</v>
+      </c>
+      <c r="D1">
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <v>128</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>512</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>360</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>256</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>360</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>128</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>360</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>360</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>360</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>360</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>360</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>360</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>360</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/script/download.xlsx
+++ b/script/download.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F4CBE-C7CF-4FA3-BA21-B0118DB5717B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C717D3-9E6E-48AC-8033-0030F30E4269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="2" activeTab="11" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
